--- a/public/local-solver-package/Result_14/schedules.xlsx
+++ b/public/local-solver-package/Result_14/schedules.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Schedule_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Schedule_2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -852,4 +853,451 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Provider / Day</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>names</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>bs</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tsj</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fsst</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>7mooda</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sodany</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lolo</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>